--- a/docs/PTA2_DDC_30/PTA2_DDC_30_03.09.2024_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,4650 +505,5521 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731432194.7195137</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731432196.9563508</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432194.7195137.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432196.9563508.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>241.91</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>247</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-5.090000000000003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731432197.87013</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731432198.5775545</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432197.87013.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432198.5775545.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>246.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>246.45</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731432198.8264437</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731432200.8178072</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432198.8264437.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432200.8178072.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>247.57</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>248.13</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731432201.422935</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731432201.422935.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731432201.422935.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>247.89</v>
       </c>
-      <c r="J6" t="n">
-        <v>247.89</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
+      <c r="L6" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1.739999999999981</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.7000000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731432202.9812844</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731432204.8531146</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432202.9812844.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432204.8531146.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>241.91</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-5.090000000000003</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731432205.6420598</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731432206.1950848</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432205.6420598.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432206.1950848.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>246.69</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>246.45</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731432206.4071012</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731432207.878101</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432206.4071012.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432207.878101.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>247.57</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>248.13</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.5600000000000023</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731432208.3840919</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731432209.5029175</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432208.3840919.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432209.5029175.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>247.89</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>241.75</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-6.139999999999986</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-2.48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731432209.660243</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731432212.4253573</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432209.660243.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432212.4253573.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>242.38</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>247.4</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-5.02000000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-2.07</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731432213.3798432</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731432214.099426</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432213.3798432.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432214.099426.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>247.15</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>247.48</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3299999999999841</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731432214.2523277</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731432216.223199</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432214.2523277.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432216.223199.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>247.92</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>249.2</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1.280000000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731432216.5941417</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731432216.5941417.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731432216.5941417.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>248.88</v>
       </c>
-      <c r="J14" t="n">
-        <v>248.88</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>247.04</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.840000000000003</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731432218.3348365</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731432220.4890332</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432218.3348365.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432220.4890332.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>123.26</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>124.41</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-1.149999999999991</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.9299999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731432220.6536324</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731432221.2532165</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432220.6536324.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432221.2532165.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>124.39</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>124.47</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731432221.5736253</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731432222.042271</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432221.5736253.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432222.042271.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>125.03</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>124.57</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731432223.9006422</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731432224.2370498</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432223.9006422.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432224.2370498.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>124.99</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>124.58</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.4099999999999966</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731432224.440007</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731432226.4123223</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432224.440007.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432226.4123223.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>124.22</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>123.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-0.8199999999999932</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731432226.5392814</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731432228.9903517</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432226.5392814.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432228.9903517.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6120</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6193</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-73</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731432230.6932392</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731432231.8090308</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432230.6932392.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432231.8090308.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6194.5</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6195</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731432231.8497884</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731432231.9869854</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432231.8497884.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432231.9869854.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6206</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6192</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731432232.1873991</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731432232.764687</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432232.1873991.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432232.764687.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6210</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6207</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>3</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731432233.6335804</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731432235.2557063</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432233.6335804.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432235.2557063.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6189.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6180.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-9</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731432235.5291808</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731432235.9734309</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432235.5291808.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432235.9734309.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>457.95</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>456.55</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.399999999999977</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731432236.3109741</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731432237.5220718</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432236.3109741.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432237.5220718.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>458.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>463.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-4.549999999999955</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731432238.548617</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731432240.9134998</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432238.548617.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432240.9134998.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>465.65</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>469.7</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-4.050000000000011</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.8699999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731432241.0860677</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731432242.6928954</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432241.0860677.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432242.6928954.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>468.75</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>467.45</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.300000000000011</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731432244.1377692</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731432245.9675164</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432244.1377692.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432245.9675164.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>191.14</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>193.73</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2.590000000000003</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731432246.6643794</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731432247.9542067</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432246.6643794.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432247.9542067.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>195.08</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>195.23</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.1499999999999773</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731432248.8044353</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731432249.8426867</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432248.8044353.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432249.8426867.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>195.97</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>194.9</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>1.069999999999993</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.5499999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731432249.8566427</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731432250.4573982</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432249.8566427.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432250.4573982.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>194.9</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>194.45</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.4500000000000171</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731432251.2202308</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731432251.6230097</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432251.2202308.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432251.6230097.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>192.73</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>193.35</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.6200000000000045</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731432252.4143806</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731432254.5783696</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432252.4143806.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432254.5783696.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>956</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>964</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-8</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731432256.2289915</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731432256.6915426</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432256.2289915.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432256.6915426.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>970</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>963.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>6.200000000000045</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.64</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731432257.6795678</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731432258.9096606</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432257.6795678.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432258.9096606.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>971</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>970.6</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731432260.1132822</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731432260.1132822.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731432260.1132822.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>968.8</v>
       </c>
-      <c r="J37" t="n">
-        <v>968.8</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>963</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-5.799999999999955</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731432262.7287798</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731432263.9533467</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432262.7287798.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432263.9533467.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>11.995</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>11.984</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>0.01099999999999923</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731432264.33955</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731432264.4406283</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432264.33955.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432264.4406283.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.996</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.987</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.009000000000000341</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731432264.5429406</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731432264.8270833</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432264.5429406.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432264.8270833.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>11.975</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.979</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.003999999999999559</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731432265.024902</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731432267.7503495</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432265.024902.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432267.7503495.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>11.995</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.032</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.03700000000000081</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731432268.083207</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731432268.4931324</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432268.083207.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432268.4931324.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.025</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.049</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.02399999999999913</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731432268.689375</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731432269.826384</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432268.689375.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432269.826384.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>12.059</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>12.06</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.001000000000001222</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731432270.4887013</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731432270.4887013.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731432270.4887013.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>12.07</v>
       </c>
-      <c r="J44" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>12.071</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.0009999999999994458</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731432271.2803307</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731432273.0815022</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432271.2803307.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432273.0815022.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>104.26</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>105.26</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731432273.1548307</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731432274.3790503</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432273.1548307.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432274.3790503.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>106.18</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>106.1</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731432274.8228772</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731432275.4178152</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432274.8228772.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432275.4178152.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>105.7</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>106.2</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.5</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731432275.481856</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731432278.2498665</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432275.481856.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432278.2498665.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>106.32</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>107.12</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.8000000000000114</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731432278.3220518</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731432278.3220518.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731432278.3220518.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>107</v>
       </c>
-      <c r="J49" t="n">
-        <v>107</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>105.66</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-1.340000000000003</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731432280.4982326</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731432282.4926612</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432280.4982326.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432282.4926612.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>127.64</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>129.56</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-1.920000000000002</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731432283.1169817</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731432283.711565</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432283.1169817.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432283.711565.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>130.76</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>129.96</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.7999999999999829</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731432284.498602</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731432284.5730765</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432284.498602.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432284.5730765.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>129.92</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>130.56</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.6400000000000148</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731432286.0908782</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731432288.1807897</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432286.0908782.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432288.1807897.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>129.78</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>128.04</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-1.740000000000009</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731432288.4734018</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731432289.949923</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432288.4734018.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432289.949923.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>40.745</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>41.185</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.4400000000000048</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-1.08</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731432290.147452</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731432290.738057</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432290.147452.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432290.738057.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>41.545</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>41.285</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731432291.7381752</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731432292.4546373</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432291.7381752.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432292.4546373.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>41.615</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>41.54</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.07500000000000284</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731432292.90079</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731432293.3682172</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432292.90079.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432293.3682172.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>41.44</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>41.59</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731432294.5958412</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731432295.8731854</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432294.5958412.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432295.8731854.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>41.38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>40.97</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.4100000000000037</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-0.9900000000000001</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731432297.0859973</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731432299.8543332</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432297.0859973.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432299.8543332.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1156.6</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1187.4</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>-30.80000000000018</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-2.66</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731432300.3054135</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731432301.2963066</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432300.3054135.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432301.2963066.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1198</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1201</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-3</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731432301.912608</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731432302.7029219</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432301.912608.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432302.7029219.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1196.2</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1198</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731432302.8004763</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731432303.351785</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432302.8004763.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432303.351785.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1204.2</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>1197.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>7</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731432303.7037532</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731432303.7037532.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731432303.7037532.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>1195.8</v>
       </c>
-      <c r="J63" t="n">
-        <v>1195.8</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>1165.4</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-30.39999999999986</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-2.54</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731432305.5275059</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731432306.8462446</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432305.5275059.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432306.8462446.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>47.28</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>47.37</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.08999999999999631</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731432307.086219</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731432308.0174074</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432307.086219.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432308.0174074.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>47.88</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>47.68</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731432308.6857903</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731432309.7248626</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432308.6857903.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432309.7248626.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>47.99</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>47.95</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.03999999999999915</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731432309.9772682</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731432310.0848076</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432309.9772682.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432310.0848076.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>47.94</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>48.09</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1500000000000057</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.31</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731432310.205651</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731432311.755394</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432310.205651.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432311.755394.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>48.27</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>48.6</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.3299999999999983</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.6799999999999999</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731432312.650005</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731432312.650005.png</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731432312.650005.png</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>48.4</v>
       </c>
-      <c r="J69" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
+      <c r="L69" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="M69" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.95</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731432314.01861</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731432316.9057622</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432314.01861.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432316.9057622.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>86.23</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>87.79000000000001</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-1.560000000000002</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-1.81</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731432317.1163707</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731432317.3634632</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432317.1163707.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432317.3634632.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>87.86</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.4000000000000057</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731432317.9577885</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731432318.6866083</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432317.9577885.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432318.6866083.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>87.67</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>87.45</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731432318.963826</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731432320.589277</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432318.963826.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432320.589277.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>87.95</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>88.47</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.519999999999996</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731432321.15458</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731432322.0755563</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432321.15458.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432322.0755563.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>88.33</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>88.01000000000001</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-0.3199999999999932</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-0.36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731432322.4211118</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731432322.4211118.png</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731432322.4211118.png</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>87.15000000000001</v>
       </c>
-      <c r="J75" t="n">
-        <v>87.15000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0</v>
+      <c r="L75" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.1400000000000006</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731432322.8383904</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731432324.8515558</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432322.8383904.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432324.8515558.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>46.48</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>47.53</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>-1.050000000000004</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-2.26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731432326.426057</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731432326.7196825</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432326.426057.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432326.7196825.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>47.58</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>47.55</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.03000000000000114</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731432327.502653</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731432328.0316205</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432327.502653.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432328.0316205.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>47.79</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>47.81</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731432328.617354</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731432328.617354.png</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731432328.617354.png</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>47.72</v>
       </c>
-      <c r="J79" t="n">
-        <v>47.72</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
+      <c r="L79" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>-0.9200000000000017</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-1.93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731432330.7515638</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731432331.7874959</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432330.7515638.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432331.7874959.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>137.66</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>138.52</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.8600000000000136</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731432332.052157</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731432333.0289578</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432332.052157.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432333.0289578.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>139.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>139.64</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.339999999999975</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-0.24</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731432333.7134106</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731432334.463357</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432333.7134106.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432334.463357.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>139.2</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>139.9</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.7000000000000171</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731432334.5281088</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731432334.6793797</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432334.5281088.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432334.6793797.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>139.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>139.52</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.3799999999999955</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731432334.8230069</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731432335.3818352</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432334.8230069.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432335.3818352.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>140.3</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>139.62</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.6800000000000068</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.48</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731432335.5596812</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731432336.782813</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432335.5596812.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432336.782813.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>139.3</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>138.54</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>-0.7600000000000193</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-0.5499999999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731432337.130528</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731432337.130528.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731432337.130528.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>138.82</v>
       </c>
-      <c r="J86" t="n">
-        <v>138.82</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
+      <c r="L86" t="n">
+        <v>138.84</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731432337.4321663</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731432338.0123022</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432337.4321663.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432338.0123022.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>0.2711</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>0.2728</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.001699999999999979</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.63</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731432338.1848395</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731432340.3528805</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432338.1848395.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432340.3528805.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>0.2733</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>0.2785</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>-0.005200000000000038</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731432341.8199341</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731432343.4409091</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432341.8199341.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432343.4409091.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>0.2801</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>0.2795</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.0005999999999999894</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731432343.625502</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731432343.625502.png</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731432343.625502.png</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>0.2784</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.2784</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0</v>
+      <c r="L90" t="n">
+        <v>0.2766</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-0.001799999999999968</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.65</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731432345.2408006</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731432346.9957204</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432345.2408006.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432346.9957204.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>15.101</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>15.351</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>-0.25</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-1.66</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731432347.1548712</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731432347.7020183</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432347.1548712.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432347.7020183.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>15.238</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>15.351</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1130000000000013</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731432349.358605</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731432350.6612015</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432349.358605.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432350.6612015.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>15.331</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>15.36</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>-0.02899999999999991</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731432350.7924738</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731432350.7924738.png</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731432350.7924738.png</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>15.311</v>
       </c>
-      <c r="J94" t="n">
-        <v>15.311</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
+      <c r="L94" t="n">
+        <v>15.113</v>
+      </c>
+      <c r="M94" t="n">
+        <v>-0.1980000000000004</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-1.29</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731432353.086728</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731432356.406847</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432353.086728.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432356.406847.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>642</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>652.35</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>-10.35000000000002</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-1.61</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731432356.6933758</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731432356.9933138</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432356.6933758.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432356.9933138.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>650.9</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>652.6</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>1.700000000000045</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731432357.895401</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731432358.3540342</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432357.895401.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432358.3540342.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>654</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>652.55</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>1.450000000000045</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0.22</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731432359.3505447</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731432359.6055634</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432359.3505447.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432359.6055634.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>650.75</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>650.75</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5141,229 +6027,274 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731432360.2241316</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731432360.2241316.png</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731432360.2241316.png</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>646.75</v>
       </c>
-      <c r="J99" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
+      <c r="L99" t="n">
+        <v>646.65</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731432360.4042797</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731432362.450167</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432360.4042797.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432362.450167.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>112.89</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>114.4</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-1.510000000000005</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-1.34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731432362.878144</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731432364.3695426</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432362.878144.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432364.3695426.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>113.86</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>113.73</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>-0.1299999999999955</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-0.11</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731432364.9421186</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731432366.0543785</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432364.9421186.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432366.0543785.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>114.4</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>114.12</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731432367.0394442</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731432367.0394442.png</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731432367.0394442.png</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>113.84</v>
       </c>
-      <c r="J103" t="n">
-        <v>113.84</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
+      <c r="L103" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M103" t="n">
+        <v>-1.240000000000009</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-1.09</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +6308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5406,6 +6337,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -5414,13 +6355,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.00000000000003</v>
+        <v>-19.84000000000003</v>
       </c>
       <c r="C2" t="n">
         <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.250000000000004</v>
+        <v>-2.480000000000004</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-8.109999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.01</v>
       </c>
     </row>
     <row r="3">
@@ -5430,13 +6377,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009999999999996234</v>
+        <v>0.008999999999996788</v>
       </c>
       <c r="C3" t="n">
         <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001428571428570891</v>
+        <v>0.001285714285713827</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.07000000000000002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -5446,13 +6399,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1999999999999886</v>
+        <v>-0.2199999999999989</v>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.02857142857142695</v>
+        <v>-0.03142857142857126</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.1699999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="5">
@@ -5462,13 +6421,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2.219999999999985</v>
+        <v>-2.079999999999984</v>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3699999999999974</v>
+        <v>-0.346666666666664</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="6">
@@ -5478,13 +6443,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.02999999999998693</v>
+        <v>-0.4899999999999878</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.004999999999997821</v>
+        <v>-0.08166666666666463</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="7">
@@ -5494,13 +6465,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.00000000000023</v>
+        <v>-55.40000000000009</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>-5.000000000000045</v>
+        <v>-11.08000000000002</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-4.72</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -5518,6 +6495,12 @@
       <c r="D8" t="n">
         <v>-0.2039999999999964</v>
       </c>
+      <c r="E8" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -5526,13 +6509,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.219999999999999</v>
+        <v>-2.560000000000002</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2439999999999998</v>
+        <v>-0.5120000000000005</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="10">
@@ -5550,6 +6539,12 @@
       <c r="D10" t="n">
         <v>-12.9</v>
       </c>
+      <c r="E10" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -5566,6 +6561,12 @@
       <c r="D11" t="n">
         <v>-0.07299999999999898</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -5582,6 +6583,12 @@
       <c r="D12" t="n">
         <v>-0.3</v>
       </c>
+      <c r="E12" t="n">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -5590,13 +6597,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.199999999999932</v>
+        <v>-7.299999999999955</v>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.439999999999986</v>
+        <v>-1.459999999999991</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="14">
@@ -5606,13 +6619,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.1659999999999986</v>
+        <v>-0.363999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.04149999999999965</v>
+        <v>-0.09099999999999975</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="15">
@@ -5622,13 +6641,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.890000000000015</v>
+        <v>-7.629999999999995</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.472500000000004</v>
+        <v>-1.907499999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.78</v>
       </c>
     </row>
     <row r="16">
@@ -5638,13 +6663,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.100000000000009</v>
+        <v>-2.02000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2750000000000021</v>
+        <v>-0.5050000000000026</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.07</v>
       </c>
     </row>
     <row r="17">
@@ -5654,13 +6685,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.359999999999999</v>
+        <v>-2.600000000000009</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3399999999999999</v>
+        <v>-0.6500000000000021</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.58</v>
       </c>
     </row>
     <row r="18">
@@ -5678,6 +6715,12 @@
       <c r="D18" t="n">
         <v>-2.125</v>
       </c>
+      <c r="E18" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.46</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -5686,13 +6729,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.399999999999977</v>
+        <v>-7.199999999999932</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3499999999999943</v>
+        <v>-1.799999999999983</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.7599999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="20">
@@ -5710,6 +6759,12 @@
       <c r="D20" t="n">
         <v>-0.5550000000000033</v>
       </c>
+      <c r="E20" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.44</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -5718,13 +6773,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002900000000000069</v>
+        <v>-0.004700000000000037</v>
       </c>
       <c r="C21" t="n">
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0007250000000000173</v>
+        <v>-0.001175000000000009</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.43</v>
       </c>
     </row>
     <row r="22">
@@ -5740,6 +6801,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
